--- a/tests/artifact/data/Godown.data.xlsx
+++ b/tests/artifact/data/Godown.data.xlsx
@@ -1532,8 +1532,8 @@
   <sheetPr/>
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7013888888889" defaultRowHeight="16.2" outlineLevelCol="2"/>
